--- a/Phòng kỹ thuật/COA/mã hóa/mã hóa NL - NEW (tới 200).xlsx
+++ b/Phòng kỹ thuật/COA/mã hóa/mã hóa NL - NEW (tới 200).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phòng kỹ thuật\COA\mã hóa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\COA\mã hóa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7C3F7C-A363-478A-8D2F-DB30595AD35E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8EBC7D-E1C1-4018-8E87-E38C7B76F529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12105" yWindow="-15" windowWidth="11910" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16090,7 +16090,7 @@
   <dimension ref="A1:O881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A769" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Phòng kỹ thuật/COA/mã hóa/mã hóa NL - NEW (tới 200).xlsx
+++ b/Phòng kỹ thuật/COA/mã hóa/mã hóa NL - NEW (tới 200).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\COA\mã hóa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8EBC7D-E1C1-4018-8E87-E38C7B76F529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BD22AD-1E86-4F79-B790-CA44D569C0E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="-15" windowWidth="11910" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12105" yWindow="-15" windowWidth="11910" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$N$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -16090,8 +16090,8 @@
   <dimension ref="A1:O881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A769" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I595" sqref="I595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
